--- a/data/suites/exampletestsuite_disneysuite.xlsx
+++ b/data/suites/exampletestsuite_disneysuite.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F14D5-8B8F-43D7-AF66-BD9BB14DDA2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Keywords" sheetId="2" r:id="rId2"/>
     <sheet name="TestData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,31 +71,31 @@
     <t>Windows</t>
   </si>
   <si>
-    <t>Disney_BookAResort_Test</t>
-  </si>
-  <si>
     <t>urlDisneyWorld.com</t>
   </si>
   <si>
     <t>click</t>
   </si>
   <si>
-    <t>resortcheckindate_xpath</t>
-  </si>
-  <si>
     <t>CheckinDate</t>
   </si>
   <si>
-    <t>09/31/2018</t>
-  </si>
-  <si>
-    <t>Mozilla</t>
+    <t>SysDate</t>
+  </si>
+  <si>
+    <t>DisneyBookAResortTest</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>findRates_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,12 +145,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,7 +184,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -452,20 +462,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -476,14 +487,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -493,25 +504,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -534,12 +545,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -551,32 +562,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -585,29 +596,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,71 +628,79 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" s="5">
+        <f ca="1">TODAY()+10</f>
+        <v>43638</v>
+      </c>
+      <c r="E3" s="5">
+        <f ca="1">TODAY()</f>
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Chrome, Mozilla, IE, Edge"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Windows, Linux, Mac"</formula1>
     </dataValidation>
   </dataValidations>
